--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>56.394747</v>
+        <v>140.4041596666667</v>
       </c>
       <c r="H2">
-        <v>169.184241</v>
+        <v>421.212479</v>
       </c>
       <c r="I2">
-        <v>0.06926838923950532</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="J2">
-        <v>0.0692683892395053</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.00350066666667</v>
+        <v>42.52140666666667</v>
       </c>
       <c r="N2">
-        <v>117.010502</v>
+        <v>127.56422</v>
       </c>
       <c r="O2">
-        <v>0.98996865118361</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="P2">
-        <v>0.9899686511836098</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="Q2">
-        <v>2199.592552210998</v>
+        <v>5970.182370877933</v>
       </c>
       <c r="R2">
-        <v>19796.33296989898</v>
+        <v>53731.64133790138</v>
       </c>
       <c r="S2">
-        <v>0.06857353386509436</v>
+        <v>0.1165147211669136</v>
       </c>
       <c r="T2">
-        <v>0.06857353386509434</v>
+        <v>0.1165147211669136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>56.394747</v>
+        <v>140.4041596666667</v>
       </c>
       <c r="H3">
-        <v>169.184241</v>
+        <v>421.212479</v>
       </c>
       <c r="I3">
-        <v>0.06926838923950532</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="J3">
-        <v>0.0692683892395053</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.01635</v>
       </c>
       <c r="O3">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="P3">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="Q3">
-        <v>0.30735137115</v>
+        <v>0.7652026701833334</v>
       </c>
       <c r="R3">
-        <v>2.76616234035</v>
+        <v>6.886824031650001</v>
       </c>
       <c r="S3">
-        <v>9.581851710150707E-06</v>
+        <v>1.493377759907156E-05</v>
       </c>
       <c r="T3">
-        <v>9.581851710150703E-06</v>
+        <v>1.493377759907156E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>56.394747</v>
+        <v>140.4041596666667</v>
       </c>
       <c r="H4">
-        <v>169.184241</v>
+        <v>421.212479</v>
       </c>
       <c r="I4">
-        <v>0.06926838923950532</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="J4">
-        <v>0.0692683892395053</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,22 +691,22 @@
         <v>0.08488800000000001</v>
       </c>
       <c r="O4">
-        <v>0.0007181958663990202</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="P4">
-        <v>0.0007181958663990201</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="Q4">
-        <v>1.595745761112</v>
+        <v>3.972876101928001</v>
       </c>
       <c r="R4">
-        <v>14.361711850008</v>
+        <v>35.75588491735201</v>
       </c>
       <c r="S4">
-        <v>4.974827082393109E-05</v>
+        <v>7.753507723730806E-05</v>
       </c>
       <c r="T4">
-        <v>4.974827082393107E-05</v>
+        <v>7.753507723730806E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.394747</v>
+        <v>140.4041596666667</v>
       </c>
       <c r="H5">
-        <v>169.184241</v>
+        <v>421.212479</v>
       </c>
       <c r="I5">
-        <v>0.06926838923950532</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="J5">
-        <v>0.0692683892395053</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2878673333333333</v>
+        <v>0.02040566666666667</v>
       </c>
       <c r="N5">
-        <v>0.863602</v>
+        <v>0.06121699999999999</v>
       </c>
       <c r="O5">
-        <v>0.007306514308429066</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="P5">
-        <v>0.007306514308429065</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="Q5">
-        <v>16.234205432898</v>
+        <v>2.865040480771445</v>
       </c>
       <c r="R5">
-        <v>146.107848896082</v>
+        <v>25.785364326943</v>
       </c>
       <c r="S5">
-        <v>0.0005061104771002796</v>
+        <v>5.591443812124549E-05</v>
       </c>
       <c r="T5">
-        <v>0.0005061104771002794</v>
+        <v>5.591443812124549E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.394747</v>
+        <v>140.4041596666667</v>
       </c>
       <c r="H6">
-        <v>169.184241</v>
+        <v>421.212479</v>
       </c>
       <c r="I6">
-        <v>0.06926838923950532</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="J6">
-        <v>0.0692683892395053</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07360900000000001</v>
+        <v>0.07801066666666666</v>
       </c>
       <c r="N6">
-        <v>0.220827</v>
+        <v>0.234032</v>
       </c>
       <c r="O6">
-        <v>0.001868309285049671</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="P6">
-        <v>0.00186830928504967</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="Q6">
-        <v>4.151160931923</v>
+        <v>10.95302209836978</v>
       </c>
       <c r="R6">
-        <v>37.360448387307</v>
+        <v>98.577198885328</v>
       </c>
       <c r="S6">
-        <v>0.0001294147747766025</v>
+        <v>0.0002137603571294138</v>
       </c>
       <c r="T6">
-        <v>0.0001294147747766024</v>
+        <v>0.0002137603571294138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>939.102844</v>
       </c>
       <c r="I7">
-        <v>0.3844929110987261</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="J7">
-        <v>0.384492911098726</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.00350066666667</v>
+        <v>42.52140666666667</v>
       </c>
       <c r="N7">
-        <v>117.010502</v>
+        <v>127.56422</v>
       </c>
       <c r="O7">
-        <v>0.98996865118361</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="P7">
-        <v>0.9899686511836098</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="Q7">
-        <v>12209.43280067419</v>
+        <v>13310.65797718241</v>
       </c>
       <c r="R7">
-        <v>109884.8952060677</v>
+        <v>119795.9217946417</v>
       </c>
       <c r="S7">
-        <v>0.3806359285900655</v>
+        <v>0.259772232473947</v>
       </c>
       <c r="T7">
-        <v>0.3806359285900654</v>
+        <v>0.259772232473947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>939.102844</v>
       </c>
       <c r="I8">
-        <v>0.3844929110987261</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="J8">
-        <v>0.384492911098726</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,10 +939,10 @@
         <v>0.01635</v>
       </c>
       <c r="O8">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="P8">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="Q8">
         <v>1.706036833266667</v>
@@ -951,10 +951,10 @@
         <v>15.3543314994</v>
       </c>
       <c r="S8">
-        <v>5.318665697586333E-05</v>
+        <v>3.329519830050333E-05</v>
       </c>
       <c r="T8">
-        <v>5.318665697586331E-05</v>
+        <v>3.329519830050333E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>939.102844</v>
       </c>
       <c r="I9">
-        <v>0.3844929110987261</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="J9">
-        <v>0.384492911098726</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.08488800000000001</v>
       </c>
       <c r="O9">
-        <v>0.0007181958663990202</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="P9">
-        <v>0.0007181958663990201</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="Q9">
         <v>8.857618024608001</v>
@@ -1013,10 +1013,10 @@
         <v>79.718562221472</v>
       </c>
       <c r="S9">
-        <v>0.000276141219410831</v>
+        <v>0.0001728662258919344</v>
       </c>
       <c r="T9">
-        <v>0.0002761412194108309</v>
+        <v>0.0001728662258919344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>939.102844</v>
       </c>
       <c r="I10">
-        <v>0.3844929110987261</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="J10">
-        <v>0.384492911098726</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2878673333333333</v>
+        <v>0.02040566666666667</v>
       </c>
       <c r="N10">
-        <v>0.863602</v>
+        <v>0.06121699999999999</v>
       </c>
       <c r="O10">
-        <v>0.007306514308429066</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="P10">
-        <v>0.007306514308429065</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="Q10">
-        <v>90.11234380934312</v>
+        <v>6.387673200127556</v>
       </c>
       <c r="R10">
-        <v>811.011094284088</v>
+        <v>57.489058801148</v>
       </c>
       <c r="S10">
-        <v>0.002809302956432387</v>
+        <v>0.0001246625170863555</v>
       </c>
       <c r="T10">
-        <v>0.002809302956432386</v>
+        <v>0.0001246625170863555</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>939.102844</v>
       </c>
       <c r="I11">
-        <v>0.3844929110987261</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="J11">
-        <v>0.384492911098726</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.07360900000000001</v>
+        <v>0.07801066666666666</v>
       </c>
       <c r="N11">
-        <v>0.220827</v>
+        <v>0.234032</v>
       </c>
       <c r="O11">
-        <v>0.001868309285049671</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="P11">
-        <v>0.00186830928504967</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="Q11">
-        <v>23.04214041466534</v>
+        <v>24.42001297633422</v>
       </c>
       <c r="R11">
-        <v>207.379263731988</v>
+        <v>219.780116787008</v>
       </c>
       <c r="S11">
-        <v>0.0007183516758415275</v>
+        <v>0.0004765835993066296</v>
       </c>
       <c r="T11">
-        <v>0.0007183516758415273</v>
+        <v>0.0004765835993066296</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>146.5374533333333</v>
+        <v>274.4172466666667</v>
       </c>
       <c r="H12">
-        <v>439.61236</v>
+        <v>823.25174</v>
       </c>
       <c r="I12">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="J12">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>39.00350066666667</v>
+        <v>42.52140666666667</v>
       </c>
       <c r="N12">
-        <v>117.010502</v>
+        <v>127.56422</v>
       </c>
       <c r="O12">
-        <v>0.98996865118361</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="P12">
-        <v>0.9899686511836098</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="Q12">
-        <v>5715.473658778303</v>
+        <v>11668.60734186031</v>
       </c>
       <c r="R12">
-        <v>51439.26292900473</v>
+        <v>105017.4660767428</v>
       </c>
       <c r="S12">
-        <v>0.1781831030939463</v>
+        <v>0.2277257956934282</v>
       </c>
       <c r="T12">
-        <v>0.1781831030939462</v>
+        <v>0.2277257956934282</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>146.5374533333333</v>
+        <v>274.4172466666667</v>
       </c>
       <c r="H13">
-        <v>439.61236</v>
+        <v>823.25174</v>
       </c>
       <c r="I13">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="J13">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1249,22 +1249,22 @@
         <v>0.01635</v>
       </c>
       <c r="O13">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="P13">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="Q13">
-        <v>0.7986291206666667</v>
+        <v>1.495573994333333</v>
       </c>
       <c r="R13">
-        <v>7.187662086</v>
+        <v>13.460165949</v>
       </c>
       <c r="S13">
-        <v>2.489771162238088E-05</v>
+        <v>2.91877829032902E-05</v>
       </c>
       <c r="T13">
-        <v>2.489771162238088E-05</v>
+        <v>2.91877829032902E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>146.5374533333333</v>
+        <v>274.4172466666667</v>
       </c>
       <c r="H14">
-        <v>439.61236</v>
+        <v>823.25174</v>
       </c>
       <c r="I14">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="J14">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1311,22 +1311,22 @@
         <v>0.08488800000000001</v>
       </c>
       <c r="O14">
-        <v>0.0007181958663990202</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="P14">
-        <v>0.0007181958663990201</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="Q14">
-        <v>4.14642377952</v>
+        <v>7.764910411680002</v>
       </c>
       <c r="R14">
-        <v>37.31781401568001</v>
+        <v>69.88419370512001</v>
       </c>
       <c r="S14">
-        <v>0.0001292670913884201</v>
+        <v>0.0001515408266112843</v>
       </c>
       <c r="T14">
-        <v>0.0001292670913884201</v>
+        <v>0.0001515408266112843</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>146.5374533333333</v>
+        <v>274.4172466666667</v>
       </c>
       <c r="H15">
-        <v>439.61236</v>
+        <v>823.25174</v>
       </c>
       <c r="I15">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="J15">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.2878673333333333</v>
+        <v>0.02040566666666667</v>
       </c>
       <c r="N15">
-        <v>0.863602</v>
+        <v>0.06121699999999999</v>
       </c>
       <c r="O15">
-        <v>0.007306514308429066</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="P15">
-        <v>0.007306514308429065</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="Q15">
-        <v>42.18334592452444</v>
+        <v>5.599666863064445</v>
       </c>
       <c r="R15">
-        <v>379.65011332072</v>
+        <v>50.39700176757999</v>
       </c>
       <c r="S15">
-        <v>0.001315089513915069</v>
+        <v>0.0001092837006722151</v>
       </c>
       <c r="T15">
-        <v>0.001315089513915069</v>
+        <v>0.0001092837006722151</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>146.5374533333333</v>
+        <v>274.4172466666667</v>
       </c>
       <c r="H16">
-        <v>439.61236</v>
+        <v>823.25174</v>
       </c>
       <c r="I16">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="J16">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.07360900000000001</v>
+        <v>0.07801066666666666</v>
       </c>
       <c r="N16">
-        <v>0.220827</v>
+        <v>0.234032</v>
       </c>
       <c r="O16">
-        <v>0.001868309285049671</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="P16">
-        <v>0.00186830928504967</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="Q16">
-        <v>10.78647540241333</v>
+        <v>21.40747235729778</v>
       </c>
       <c r="R16">
-        <v>97.07827862172002</v>
+        <v>192.66725121568</v>
       </c>
       <c r="S16">
-        <v>0.000336274432075566</v>
+        <v>0.0004177905326252485</v>
       </c>
       <c r="T16">
-        <v>0.0003362744320755659</v>
+        <v>0.0004177905326252485</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>90.92445633333334</v>
+        <v>92.19491066666667</v>
       </c>
       <c r="H17">
-        <v>272.773369</v>
+        <v>276.584732</v>
       </c>
       <c r="I17">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="J17">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>39.00350066666667</v>
+        <v>42.52140666666667</v>
       </c>
       <c r="N17">
-        <v>117.010502</v>
+        <v>127.56422</v>
       </c>
       <c r="O17">
-        <v>0.98996865118361</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="P17">
-        <v>0.9899686511836098</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="Q17">
-        <v>3546.372093213471</v>
+        <v>3920.257289054338</v>
       </c>
       <c r="R17">
-        <v>31917.34883892124</v>
+        <v>35282.31560148905</v>
       </c>
       <c r="S17">
-        <v>0.110560142871802</v>
+        <v>0.07650816282678442</v>
       </c>
       <c r="T17">
-        <v>0.110560142871802</v>
+        <v>0.07650816282678442</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>90.92445633333334</v>
+        <v>92.19491066666667</v>
       </c>
       <c r="H18">
-        <v>272.773369</v>
+        <v>276.584732</v>
       </c>
       <c r="I18">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="J18">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.01635</v>
       </c>
       <c r="O18">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="P18">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="Q18">
-        <v>0.4955382870166667</v>
+        <v>0.5024622631333333</v>
       </c>
       <c r="R18">
-        <v>4.45984458315</v>
+        <v>4.522160368200001</v>
       </c>
       <c r="S18">
-        <v>1.544868456298019E-05</v>
+        <v>9.806107560708833E-06</v>
       </c>
       <c r="T18">
-        <v>1.544868456298018E-05</v>
+        <v>9.806107560708833E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>90.92445633333334</v>
+        <v>92.19491066666667</v>
       </c>
       <c r="H19">
-        <v>272.773369</v>
+        <v>276.584732</v>
       </c>
       <c r="I19">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="J19">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1621,22 +1621,22 @@
         <v>0.08488800000000001</v>
       </c>
       <c r="O19">
-        <v>0.0007181958663990202</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="P19">
-        <v>0.0007181958663990201</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="Q19">
-        <v>2.572798416408</v>
+        <v>2.608747192224</v>
       </c>
       <c r="R19">
-        <v>23.155185747672</v>
+        <v>23.478724730016</v>
       </c>
       <c r="S19">
-        <v>8.020843640258486E-05</v>
+        <v>5.091259074088389E-05</v>
       </c>
       <c r="T19">
-        <v>8.020843640258483E-05</v>
+        <v>5.091259074088389E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>90.92445633333334</v>
+        <v>92.19491066666667</v>
       </c>
       <c r="H20">
-        <v>272.773369</v>
+        <v>276.584732</v>
       </c>
       <c r="I20">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="J20">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.2878673333333333</v>
+        <v>0.02040566666666667</v>
       </c>
       <c r="N20">
-        <v>0.863602</v>
+        <v>0.06121699999999999</v>
       </c>
       <c r="O20">
-        <v>0.007306514308429066</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="P20">
-        <v>0.007306514308429065</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="Q20">
-        <v>26.17418077945978</v>
+        <v>1.881298615427111</v>
       </c>
       <c r="R20">
-        <v>235.567627015138</v>
+        <v>16.931687538844</v>
       </c>
       <c r="S20">
-        <v>0.0008159947942482457</v>
+        <v>3.67156260883127E-05</v>
       </c>
       <c r="T20">
-        <v>0.0008159947942482454</v>
+        <v>3.67156260883127E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>90.92445633333334</v>
+        <v>92.19491066666667</v>
       </c>
       <c r="H21">
-        <v>272.773369</v>
+        <v>276.584732</v>
       </c>
       <c r="I21">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="J21">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.07360900000000001</v>
+        <v>0.07801066666666666</v>
       </c>
       <c r="N21">
-        <v>0.220827</v>
+        <v>0.234032</v>
       </c>
       <c r="O21">
-        <v>0.001868309285049671</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="P21">
-        <v>0.00186830928504967</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="Q21">
-        <v>6.692858306240335</v>
+        <v>7.192186444380444</v>
       </c>
       <c r="R21">
-        <v>60.23572475616301</v>
+        <v>64.729677999424</v>
       </c>
       <c r="S21">
-        <v>0.0002086536187149374</v>
+        <v>0.0001403634840763186</v>
       </c>
       <c r="T21">
-        <v>0.0002086536187149374</v>
+        <v>0.0001403634840763186</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>138.0495273333333</v>
+        <v>148.4476776666667</v>
       </c>
       <c r="H22">
-        <v>414.148582</v>
+        <v>445.343033</v>
       </c>
       <c r="I22">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="J22">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>39.00350066666667</v>
+        <v>42.52140666666667</v>
       </c>
       <c r="N22">
-        <v>117.010502</v>
+        <v>127.56422</v>
       </c>
       <c r="O22">
-        <v>0.98996865118361</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="P22">
-        <v>0.9899686511836098</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="Q22">
-        <v>5384.414831378685</v>
+        <v>6312.204070786585</v>
       </c>
       <c r="R22">
-        <v>48459.73348240817</v>
+        <v>56809.83663707926</v>
       </c>
       <c r="S22">
-        <v>0.1678621581129286</v>
+        <v>0.1231896534423962</v>
       </c>
       <c r="T22">
-        <v>0.1678621581129285</v>
+        <v>0.1231896534423962</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>138.0495273333333</v>
+        <v>148.4476776666667</v>
       </c>
       <c r="H23">
-        <v>414.148582</v>
+        <v>445.343033</v>
       </c>
       <c r="I23">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="J23">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1869,22 +1869,22 @@
         <v>0.01635</v>
       </c>
       <c r="O23">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="P23">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="Q23">
-        <v>0.7523699239666667</v>
+        <v>0.8090398432833333</v>
       </c>
       <c r="R23">
-        <v>6.771329315700001</v>
+        <v>7.28135858955</v>
       </c>
       <c r="S23">
-        <v>2.345555517013663E-05</v>
+        <v>1.578930858341921E-05</v>
       </c>
       <c r="T23">
-        <v>2.345555517013662E-05</v>
+        <v>1.578930858341921E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>138.0495273333333</v>
+        <v>148.4476776666667</v>
       </c>
       <c r="H24">
-        <v>414.148582</v>
+        <v>445.343033</v>
       </c>
       <c r="I24">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="J24">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1931,22 +1931,22 @@
         <v>0.08488800000000001</v>
       </c>
       <c r="O24">
-        <v>0.0007181958663990202</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="P24">
-        <v>0.0007181958663990201</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="Q24">
-        <v>3.906249425424</v>
+        <v>4.200475487256</v>
       </c>
       <c r="R24">
-        <v>35.15624482881601</v>
+        <v>37.804279385304</v>
       </c>
       <c r="S24">
-        <v>0.000121779520934713</v>
+        <v>8.197693131677617E-05</v>
       </c>
       <c r="T24">
-        <v>0.000121779520934713</v>
+        <v>8.197693131677617E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>138.0495273333333</v>
+        <v>148.4476776666667</v>
       </c>
       <c r="H25">
-        <v>414.148582</v>
+        <v>445.343033</v>
       </c>
       <c r="I25">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="J25">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.2878673333333333</v>
+        <v>0.02040566666666667</v>
       </c>
       <c r="N25">
-        <v>0.863602</v>
+        <v>0.06121699999999999</v>
       </c>
       <c r="O25">
-        <v>0.007306514308429066</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="P25">
-        <v>0.007306514308429065</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="Q25">
-        <v>39.73994930137378</v>
+        <v>3.029173827906777</v>
       </c>
       <c r="R25">
-        <v>357.659543712364</v>
+        <v>27.262564451161</v>
       </c>
       <c r="S25">
-        <v>0.001238915251133965</v>
+        <v>5.911768217438374E-05</v>
       </c>
       <c r="T25">
-        <v>0.001238915251133965</v>
+        <v>5.911768217438374E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.0495273333333</v>
+        <v>148.4476776666667</v>
       </c>
       <c r="H26">
-        <v>414.148582</v>
+        <v>445.343033</v>
       </c>
       <c r="I26">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="J26">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.07360900000000001</v>
+        <v>0.07801066666666666</v>
       </c>
       <c r="N26">
-        <v>0.220827</v>
+        <v>0.234032</v>
       </c>
       <c r="O26">
-        <v>0.001868309285049671</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="P26">
-        <v>0.00186830928504967</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="Q26">
-        <v>10.16168765747934</v>
+        <v>11.58050229989511</v>
       </c>
       <c r="R26">
-        <v>91.45518891731402</v>
+        <v>104.224520699056</v>
       </c>
       <c r="S26">
-        <v>0.0003167963230309334</v>
+        <v>0.0002260063282198633</v>
       </c>
       <c r="T26">
-        <v>0.0003167963230309333</v>
+        <v>0.0002260063282198633</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>69.20791633333333</v>
+        <v>232.8015696666667</v>
       </c>
       <c r="H27">
-        <v>207.623749</v>
+        <v>698.404709</v>
       </c>
       <c r="I27">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="J27">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>39.00350066666667</v>
+        <v>42.52140666666667</v>
       </c>
       <c r="N27">
-        <v>117.010502</v>
+        <v>127.56422</v>
       </c>
       <c r="O27">
-        <v>0.98996865118361</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="P27">
-        <v>0.9899686511836098</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="Q27">
-        <v>2699.351010845778</v>
+        <v>9899.050216434665</v>
       </c>
       <c r="R27">
-        <v>24294.159097612</v>
+        <v>89091.45194791199</v>
       </c>
       <c r="S27">
-        <v>0.08415378464977333</v>
+        <v>0.1931909285403541</v>
       </c>
       <c r="T27">
-        <v>0.08415378464977331</v>
+        <v>0.1931909285403541</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>69.20791633333333</v>
+        <v>232.8015696666667</v>
       </c>
       <c r="H28">
-        <v>207.623749</v>
+        <v>698.404709</v>
       </c>
       <c r="I28">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="J28">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2179,22 +2179,22 @@
         <v>0.01635</v>
       </c>
       <c r="O28">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="P28">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="Q28">
-        <v>0.3771831440166666</v>
+        <v>1.268768554683333</v>
       </c>
       <c r="R28">
-        <v>3.39464829615</v>
+        <v>11.41891699215</v>
       </c>
       <c r="S28">
-        <v>1.175889647088083E-05</v>
+        <v>2.476142355305264E-05</v>
       </c>
       <c r="T28">
-        <v>1.175889647088082E-05</v>
+        <v>2.476142355305264E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>69.20791633333333</v>
+        <v>232.8015696666667</v>
       </c>
       <c r="H29">
-        <v>207.623749</v>
+        <v>698.404709</v>
       </c>
       <c r="I29">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="J29">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2241,22 +2241,22 @@
         <v>0.08488800000000001</v>
       </c>
       <c r="O29">
-        <v>0.0007181958663990202</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="P29">
-        <v>0.0007181958663990201</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="Q29">
-        <v>1.958307200568</v>
+        <v>6.587353215288</v>
       </c>
       <c r="R29">
-        <v>17.624764805112</v>
+        <v>59.28617893759201</v>
       </c>
       <c r="S29">
-        <v>6.105132743854016E-05</v>
+        <v>0.0001285594937352619</v>
       </c>
       <c r="T29">
-        <v>6.105132743854014E-05</v>
+        <v>0.0001285594937352619</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>69.20791633333333</v>
+        <v>232.8015696666667</v>
       </c>
       <c r="H30">
-        <v>207.623749</v>
+        <v>698.404709</v>
       </c>
       <c r="I30">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="J30">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.2878673333333333</v>
+        <v>0.02040566666666667</v>
       </c>
       <c r="N30">
-        <v>0.863602</v>
+        <v>0.06121699999999999</v>
       </c>
       <c r="O30">
-        <v>0.007306514308429066</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="P30">
-        <v>0.007306514308429065</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="Q30">
-        <v>19.92269832043311</v>
+        <v>4.750471230094777</v>
       </c>
       <c r="R30">
-        <v>179.304284883898</v>
+        <v>42.754241070853</v>
       </c>
       <c r="S30">
-        <v>0.0006211013155991207</v>
+        <v>9.271070737903507E-05</v>
       </c>
       <c r="T30">
-        <v>0.0006211013155991206</v>
+        <v>9.271070737903508E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>69.20791633333333</v>
+        <v>232.8015696666667</v>
       </c>
       <c r="H31">
-        <v>207.623749</v>
+        <v>698.404709</v>
       </c>
       <c r="I31">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="J31">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.07360900000000001</v>
+        <v>0.07801066666666666</v>
       </c>
       <c r="N31">
-        <v>0.220827</v>
+        <v>0.234032</v>
       </c>
       <c r="O31">
-        <v>0.001868309285049671</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="P31">
-        <v>0.00186830928504967</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="Q31">
-        <v>5.094325513380333</v>
+        <v>18.16100565074311</v>
       </c>
       <c r="R31">
-        <v>45.84892962042301</v>
+        <v>163.449050856688</v>
       </c>
       <c r="S31">
-        <v>0.000158818460610104</v>
+        <v>0.0003544321392640988</v>
       </c>
       <c r="T31">
-        <v>0.000158818460610104</v>
+        <v>0.0003544321392640989</v>
       </c>
     </row>
   </sheetData>
